--- a/Calculs/PH4/DataBase_PH4_FileB_MidStrip_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_MidStrip_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AFDA80FC-A2B1-4E42-A4BC-FC30F30A3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13177156-7F2D-4AD1-B306-EC21B002626A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{AFDA80FC-A2B1-4E42-A4BC-FC30F30A3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F36483D4-28F1-4214-87B2-2B957F1A21BE}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -765,6 +765,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1086,7 +1090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y3" sqref="Y3:Z41"/>
+      <selection pane="topRight" activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,32 +1263,31 @@
       <c r="X2" s="4">
         <v>0</v>
       </c>
-      <c r="Y2" s="9">
-        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="9">
-        <f t="shared" ref="Z2" si="0">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="3">
         <v>0</v>
       </c>
-      <c r="AB2" s="9">
-        <f t="shared" ref="AB2" si="1">Y2*(1-AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="9">
-        <f t="shared" ref="AC2" si="2">Y2*AA2 + Z2</f>
+      <c r="AB2" s="2">
+        <f t="shared" ref="AB2:AB41" si="0">Y2*(1-AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <f t="shared" ref="AC2:AC41" si="1">Y2*AA2 + Z2</f>
         <v>0</v>
       </c>
       <c r="AD2" s="8">
-        <f t="shared" ref="AD2" si="3">1.35*Y2+1.5*Z2</f>
+        <f t="shared" ref="AD2" si="2">1.35*Y2+1.5*Z2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="8"/>
-      <c r="AF2" s="9">
-        <f t="shared" ref="AF2" si="4">AB2+AC2</f>
+      <c r="AF2" s="2">
+        <f>AB2+AC2</f>
         <v>0</v>
       </c>
       <c r="AP2" s="2"/>
@@ -1292,7 +1295,7 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A41" si="5">IF(B3=B2,A2,A2+1)</f>
+        <f t="shared" ref="A3:A41" si="3">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1361,38 +1364,40 @@
       <c r="X3" s="7">
         <v>0</v>
       </c>
-      <c r="Y3" s="9">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>21</v>
+      <c r="Y3" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
+        <v>56.256</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
+        <v>17.088000000000001</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
-      <c r="AB3" s="9">
-        <f t="shared" ref="AB3" si="6">Y3*(1-AA3)</f>
-        <v>42</v>
-      </c>
-      <c r="AC3" s="9">
-        <f t="shared" ref="AC3" si="7">Y3*AA3 + Z3</f>
-        <v>21</v>
+      <c r="AB3" s="2">
+        <f t="shared" si="0"/>
+        <v>56.256</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="1"/>
+        <v>17.088000000000001</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" ref="AD3" si="8">1.35*Y3+1.5*Z3</f>
-        <v>88.2</v>
+        <f t="shared" ref="AD3" si="4">1.35*Y3+1.5*Z3</f>
+        <v>101.5776</v>
       </c>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="9">
-        <f t="shared" ref="AF3" si="9">AB3+AC3</f>
-        <v>63</v>
+      <c r="AF3" s="2">
+        <f t="shared" ref="AF3:AF41" si="5">AB3+AC3</f>
+        <v>73.343999999999994</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1461,38 +1466,40 @@
       <c r="X4" s="7">
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>6</v>
+      <c r="Y4" s="2">
+        <f t="shared" ref="Y4:Y41" si="6">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),V4+X4*V4,IF(A3&lt;A4,V4-X5*V5/2,IF(A4&lt;A5,V4-(X3*V3)/2,V4-(X5*V5+X3*V3)/2))),0)</f>
+        <v>0.64460000000000006</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" ref="Z4:Z41" si="7">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),W4+X4*W4,IF(A3&lt;A4,W4-X5*W5/2,IF(A4&lt;A5,W4-(X3*W3)/2,W4-(X5*W5+X3*W3)/2))),0)</f>
+        <v>0.1958</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
-      <c r="AB4" s="9">
-        <f t="shared" ref="AB4:AB41" si="10">Y4*(1-AA4)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="9">
-        <f t="shared" ref="AC4:AC41" si="11">Y4*AA4 + Z4</f>
-        <v>6</v>
+      <c r="AB4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64460000000000006</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1958</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" ref="AD4:AD41" si="12">1.35*Y4+1.5*Z4</f>
-        <v>9</v>
+        <f t="shared" ref="AD4:AD41" si="8">1.35*Y4+1.5*Z4</f>
+        <v>1.1639100000000002</v>
       </c>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AF41" si="13">AB4+AC4</f>
-        <v>6</v>
+      <c r="AF4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.84040000000000004</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1561,38 +1568,40 @@
       <c r="X5" s="7">
         <v>0</v>
       </c>
-      <c r="Y5" s="9">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>23</v>
+      <c r="Y5" s="2">
+        <f t="shared" si="6"/>
+        <v>29.253119999999999</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="7"/>
+        <v>8.8857599999999994</v>
       </c>
       <c r="AA5" s="3">
         <v>0</v>
       </c>
-      <c r="AB5" s="9">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="AC5" s="9">
-        <f t="shared" si="11"/>
-        <v>23</v>
+      <c r="AB5" s="2">
+        <f t="shared" si="0"/>
+        <v>29.253119999999999</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8857599999999994</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" si="12"/>
-        <v>64.2</v>
+        <f t="shared" si="8"/>
+        <v>52.820352</v>
       </c>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="9">
-        <f t="shared" si="13"/>
-        <v>45</v>
+      <c r="AF5" s="2">
+        <f t="shared" si="5"/>
+        <v>38.13888</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -1661,38 +1670,40 @@
       <c r="X6" s="7">
         <v>0</v>
       </c>
-      <c r="Y6" s="9">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>13</v>
+      <c r="Y6" s="2">
+        <f t="shared" si="6"/>
+        <v>30.296199999999999</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="7"/>
+        <v>9.2026000000000003</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
-      <c r="AB6" s="9">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="AC6" s="9">
-        <f t="shared" si="11"/>
-        <v>13</v>
+      <c r="AB6" s="2">
+        <f t="shared" si="0"/>
+        <v>30.296199999999999</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2026000000000003</v>
       </c>
       <c r="AD6" s="8">
-        <f t="shared" si="12"/>
-        <v>55.95</v>
+        <f t="shared" si="8"/>
+        <v>54.703769999999999</v>
       </c>
       <c r="AE6" s="8"/>
-      <c r="AF6" s="9">
-        <f t="shared" si="13"/>
-        <v>40</v>
+      <c r="AF6" s="2">
+        <f t="shared" si="5"/>
+        <v>39.498800000000003</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -1761,38 +1772,40 @@
       <c r="X7" s="7">
         <v>0</v>
       </c>
-      <c r="Y7" s="9">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>33</v>
+      <c r="Y7" s="2">
+        <f t="shared" si="6"/>
+        <v>78.758399999999995</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="7"/>
+        <v>23.923200000000001</v>
       </c>
       <c r="AA7" s="3">
         <v>0</v>
       </c>
-      <c r="AB7" s="9">
-        <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="11"/>
-        <v>33</v>
+      <c r="AB7" s="2">
+        <f t="shared" si="0"/>
+        <v>78.758399999999995</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="1"/>
+        <v>23.923200000000001</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="12"/>
-        <v>130.5</v>
+        <f t="shared" si="8"/>
+        <v>142.20864</v>
       </c>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="9">
-        <f t="shared" si="13"/>
-        <v>93</v>
+      <c r="AF7" s="2">
+        <f t="shared" si="5"/>
+        <v>102.6816</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -1861,38 +1874,40 @@
       <c r="X8" s="7">
         <v>0</v>
       </c>
-      <c r="Y8" s="9">
-        <v>45</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>14</v>
+      <c r="Y8" s="2">
+        <f t="shared" si="6"/>
+        <v>50.923400000000001</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="7"/>
+        <v>15.4682</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-      <c r="AB8" s="9">
-        <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="AC8" s="9">
-        <f t="shared" si="11"/>
-        <v>14</v>
+      <c r="AB8" s="2">
+        <f t="shared" si="0"/>
+        <v>50.923400000000001</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="1"/>
+        <v>15.4682</v>
       </c>
       <c r="AD8" s="8">
-        <f t="shared" si="12"/>
-        <v>81.75</v>
+        <f t="shared" si="8"/>
+        <v>91.948890000000006</v>
       </c>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="9">
-        <f t="shared" si="13"/>
-        <v>59</v>
+      <c r="AF8" s="2">
+        <f t="shared" si="5"/>
+        <v>66.391599999999997</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -1961,37 +1976,39 @@
       <c r="X9" s="7">
         <v>0</v>
       </c>
-      <c r="Y9" s="9">
-        <v>59</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>32</v>
+      <c r="Y9" s="2">
+        <f t="shared" si="6"/>
+        <v>76.508160000000004</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="7"/>
+        <v>23.23968</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-      <c r="AB9" s="9">
-        <f t="shared" si="10"/>
-        <v>59</v>
-      </c>
-      <c r="AC9" s="9">
-        <f t="shared" si="11"/>
-        <v>32</v>
+      <c r="AB9" s="2">
+        <f t="shared" si="0"/>
+        <v>76.508160000000004</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="1"/>
+        <v>23.23968</v>
       </c>
       <c r="AD9" s="8">
-        <f t="shared" si="12"/>
-        <v>127.65</v>
+        <f t="shared" si="8"/>
+        <v>138.14553600000002</v>
       </c>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="9">
-        <f t="shared" si="13"/>
-        <v>91</v>
+      <c r="AF9" s="2">
+        <f t="shared" si="5"/>
+        <v>99.747839999999997</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -2060,38 +2077,40 @@
       <c r="X10" s="7">
         <v>0</v>
       </c>
-      <c r="Y10" s="9">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>11</v>
+      <c r="Y10" s="2">
+        <f t="shared" si="6"/>
+        <v>33.519199999999998</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="7"/>
+        <v>10.1816</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-      <c r="AB10" s="9">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="AC10" s="9">
-        <f t="shared" si="11"/>
-        <v>11</v>
+      <c r="AB10" s="2">
+        <f t="shared" si="0"/>
+        <v>33.519199999999998</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="1"/>
+        <v>10.1816</v>
       </c>
       <c r="AD10" s="8">
-        <f t="shared" si="12"/>
-        <v>59.7</v>
+        <f t="shared" si="8"/>
+        <v>60.523319999999998</v>
       </c>
       <c r="AE10" s="8"/>
-      <c r="AF10" s="9">
-        <f t="shared" si="13"/>
-        <v>43</v>
+      <c r="AF10" s="2">
+        <f t="shared" si="5"/>
+        <v>43.700800000000001</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -2160,37 +2179,39 @@
       <c r="X11" s="7">
         <v>0</v>
       </c>
-      <c r="Y11" s="9">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>33</v>
+      <c r="Y11" s="2">
+        <f t="shared" si="6"/>
+        <v>82.508800000000008</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="7"/>
+        <v>25.0624</v>
       </c>
       <c r="AA11" s="3">
         <v>0</v>
       </c>
-      <c r="AB11" s="9">
-        <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
-      <c r="AC11" s="9">
-        <f t="shared" si="11"/>
-        <v>33</v>
+      <c r="AB11" s="2">
+        <f t="shared" si="0"/>
+        <v>82.508800000000008</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="1"/>
+        <v>25.0624</v>
       </c>
       <c r="AD11" s="8">
-        <f t="shared" si="12"/>
-        <v>135.9</v>
+        <f t="shared" si="8"/>
+        <v>148.98048000000003</v>
       </c>
       <c r="AE11" s="8"/>
-      <c r="AF11" s="9">
-        <f t="shared" si="13"/>
-        <v>97</v>
+      <c r="AF11" s="2">
+        <f t="shared" si="5"/>
+        <v>107.5712</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -2259,14 +2280,29 @@
       <c r="X12" s="4">
         <v>0</v>
       </c>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
+      <c r="Y12" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
+      <c r="AB12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
-      <c r="AF12" s="9"/>
+      <c r="AF12" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -2340,37 +2376,39 @@
       <c r="X13" s="7">
         <v>0</v>
       </c>
-      <c r="Y13" s="9">
-        <v>33</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>13</v>
+      <c r="Y13" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-      <c r="AB13" s="9">
-        <f t="shared" si="10"/>
-        <v>33</v>
-      </c>
-      <c r="AC13" s="9">
-        <f t="shared" si="11"/>
-        <v>13</v>
+      <c r="AB13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD13" s="8">
-        <f t="shared" si="12"/>
-        <v>64.050000000000011</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AE13" s="8"/>
-      <c r="AF13" s="9">
-        <f t="shared" si="13"/>
-        <v>46</v>
+      <c r="AF13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AP13" s="2"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -2439,38 +2477,40 @@
       <c r="X14" s="7">
         <v>0</v>
       </c>
-      <c r="Y14" s="9">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>12</v>
+      <c r="Y14" s="2">
+        <f t="shared" si="6"/>
+        <v>42.754560000000005</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="7"/>
+        <v>12.986880000000001</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="9">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="AC14" s="9">
-        <f t="shared" si="11"/>
-        <v>12</v>
+      <c r="AB14" s="2">
+        <f t="shared" si="0"/>
+        <v>42.754560000000005</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="1"/>
+        <v>12.986880000000001</v>
       </c>
       <c r="AD14" s="8">
-        <f t="shared" si="12"/>
-        <v>47.7</v>
+        <f t="shared" si="8"/>
+        <v>77.198976000000016</v>
       </c>
       <c r="AE14" s="8"/>
-      <c r="AF14" s="9">
-        <f t="shared" si="13"/>
-        <v>34</v>
+      <c r="AF14" s="2">
+        <f t="shared" si="5"/>
+        <v>55.741440000000004</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B15" t="s">
@@ -2539,38 +2579,40 @@
       <c r="X15" s="7">
         <v>0</v>
       </c>
-      <c r="Y15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>10</v>
+      <c r="Y15" s="2">
+        <f t="shared" si="6"/>
+        <v>30.296199999999999</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="7"/>
+        <v>9.2026000000000003</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="9">
-        <f t="shared" si="11"/>
-        <v>10</v>
+      <c r="AB15" s="2">
+        <f t="shared" si="0"/>
+        <v>30.296199999999999</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2026000000000003</v>
       </c>
       <c r="AD15" s="8">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>54.703769999999999</v>
       </c>
       <c r="AE15" s="8"/>
-      <c r="AF15" s="9">
-        <f t="shared" si="13"/>
-        <v>10</v>
+      <c r="AF15" s="2">
+        <f t="shared" si="5"/>
+        <v>39.498800000000003</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B16" t="s">
@@ -2639,38 +2681,40 @@
       <c r="X16" s="7">
         <v>0</v>
       </c>
-      <c r="Y16" s="9">
-        <v>32</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>16</v>
+      <c r="Y16" s="2">
+        <f t="shared" si="6"/>
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22783999999999999</v>
       </c>
       <c r="AA16" s="3">
         <v>0</v>
       </c>
-      <c r="AB16" s="9">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="AC16" s="9">
-        <f t="shared" si="11"/>
-        <v>16</v>
+      <c r="AB16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22783999999999999</v>
       </c>
       <c r="AD16" s="8">
-        <f t="shared" si="12"/>
-        <v>67.2</v>
+        <f t="shared" si="8"/>
+        <v>1.354368</v>
       </c>
       <c r="AE16" s="8"/>
-      <c r="AF16" s="9">
-        <f t="shared" si="13"/>
-        <v>48</v>
+      <c r="AF16" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B17" t="s">
@@ -2739,37 +2783,39 @@
       <c r="X17" s="7">
         <v>0</v>
       </c>
-      <c r="Y17" s="9">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>16</v>
+      <c r="Y17" s="2">
+        <f t="shared" si="6"/>
+        <v>36.742199999999997</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="7"/>
+        <v>11.160600000000001</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-      <c r="AB17" s="9">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="AC17" s="9">
-        <f t="shared" si="11"/>
-        <v>16</v>
+      <c r="AB17" s="2">
+        <f t="shared" si="0"/>
+        <v>36.742199999999997</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="1"/>
+        <v>11.160600000000001</v>
       </c>
       <c r="AD17" s="8">
-        <f t="shared" si="12"/>
-        <v>67.2</v>
+        <f t="shared" si="8"/>
+        <v>66.342870000000005</v>
       </c>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="9">
-        <f t="shared" si="13"/>
-        <v>48</v>
+      <c r="AF17" s="2">
+        <f t="shared" si="5"/>
+        <v>47.902799999999999</v>
       </c>
       <c r="AP17" s="2"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -2838,38 +2884,40 @@
       <c r="X18" s="7">
         <v>0</v>
       </c>
-      <c r="Y18" s="9">
-        <v>47</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>18</v>
+      <c r="Y18" s="2">
+        <f t="shared" si="6"/>
+        <v>41.254400000000004</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="7"/>
+        <v>12.5312</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-      <c r="AB18" s="9">
-        <f t="shared" si="10"/>
-        <v>47</v>
-      </c>
-      <c r="AC18" s="9">
-        <f t="shared" si="11"/>
-        <v>18</v>
+      <c r="AB18" s="2">
+        <f t="shared" si="0"/>
+        <v>41.254400000000004</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="1"/>
+        <v>12.5312</v>
       </c>
       <c r="AD18" s="8">
-        <f t="shared" si="12"/>
-        <v>90.45</v>
+        <f t="shared" si="8"/>
+        <v>74.490240000000014</v>
       </c>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="9">
-        <f t="shared" si="13"/>
-        <v>65</v>
+      <c r="AF18" s="2">
+        <f t="shared" si="5"/>
+        <v>53.785600000000002</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -2938,38 +2986,40 @@
       <c r="X19" s="7">
         <v>0</v>
       </c>
-      <c r="Y19" s="9">
-        <v>25</v>
-      </c>
-      <c r="Z19" s="9">
-        <v>13.6</v>
+      <c r="Y19" s="2">
+        <f t="shared" si="6"/>
+        <v>52.212600000000002</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="7"/>
+        <v>15.8598</v>
       </c>
       <c r="AA19" s="3">
         <v>0</v>
       </c>
-      <c r="AB19" s="9">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="11"/>
-        <v>13.6</v>
+      <c r="AB19" s="2">
+        <f t="shared" si="0"/>
+        <v>52.212600000000002</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="1"/>
+        <v>15.8598</v>
       </c>
       <c r="AD19" s="8">
-        <f t="shared" si="12"/>
-        <v>54.15</v>
+        <f t="shared" si="8"/>
+        <v>94.276710000000008</v>
       </c>
       <c r="AE19" s="8"/>
-      <c r="AF19" s="9">
-        <f t="shared" si="13"/>
-        <v>38.6</v>
+      <c r="AF19" s="2">
+        <f t="shared" si="5"/>
+        <v>68.072400000000002</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B20" t="s">
@@ -3038,38 +3088,40 @@
       <c r="X20" s="7">
         <v>0</v>
       </c>
-      <c r="Y20" s="9">
-        <v>34</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>14</v>
+      <c r="Y20" s="2">
+        <f t="shared" si="6"/>
+        <v>32.253439999999998</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="7"/>
+        <v>9.7971199999999996</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="9">
-        <f t="shared" si="10"/>
-        <v>34</v>
-      </c>
-      <c r="AC20" s="9">
-        <f t="shared" si="11"/>
-        <v>14</v>
+      <c r="AB20" s="2">
+        <f t="shared" si="0"/>
+        <v>32.253439999999998</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7971199999999996</v>
       </c>
       <c r="AD20" s="8">
-        <f t="shared" si="12"/>
-        <v>66.900000000000006</v>
+        <f t="shared" si="8"/>
+        <v>58.237824000000003</v>
       </c>
       <c r="AE20" s="8"/>
-      <c r="AF20" s="9">
-        <f t="shared" si="13"/>
-        <v>48</v>
+      <c r="AF20" s="2">
+        <f t="shared" si="5"/>
+        <v>42.050559999999997</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B21" t="s">
@@ -3138,38 +3190,40 @@
       <c r="X21" s="7">
         <v>0</v>
       </c>
-      <c r="Y21" s="9">
-        <v>17</v>
-      </c>
-      <c r="Z21" s="9">
-        <v>9</v>
+      <c r="Y21" s="2">
+        <f t="shared" si="6"/>
+        <v>38.675999999999995</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="7"/>
+        <v>11.747999999999999</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
-      <c r="AB21" s="9">
-        <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="11"/>
-        <v>9</v>
+      <c r="AB21" s="2">
+        <f t="shared" si="0"/>
+        <v>38.675999999999995</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="1"/>
+        <v>11.747999999999999</v>
       </c>
       <c r="AD21" s="8">
-        <f t="shared" si="12"/>
-        <v>36.450000000000003</v>
+        <f t="shared" si="8"/>
+        <v>69.834599999999995</v>
       </c>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="9">
-        <f t="shared" si="13"/>
-        <v>26</v>
+      <c r="AF21" s="2">
+        <f t="shared" si="5"/>
+        <v>50.423999999999992</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -3238,20 +3292,35 @@
       <c r="X22" s="4">
         <v>0</v>
       </c>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
+      <c r="Y22" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
+      <c r="AB22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
-      <c r="AF22" s="9"/>
+      <c r="AF22" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B23" t="s">
@@ -3320,37 +3389,39 @@
       <c r="X23" s="7">
         <v>0</v>
       </c>
-      <c r="Y23" s="9">
-        <v>27</v>
-      </c>
-      <c r="Z23" s="9">
-        <v>11.5</v>
+      <c r="Y23" s="2">
+        <f t="shared" si="6"/>
+        <v>21.752319999999997</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="7"/>
+        <v>6.607359999999999</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-      <c r="AB23" s="9">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="11"/>
-        <v>11.5</v>
+      <c r="AB23" s="2">
+        <f t="shared" si="0"/>
+        <v>21.752319999999997</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="1"/>
+        <v>6.607359999999999</v>
       </c>
       <c r="AD23" s="8">
-        <f t="shared" si="12"/>
-        <v>53.7</v>
+        <f t="shared" si="8"/>
+        <v>39.276671999999998</v>
       </c>
       <c r="AE23" s="8"/>
-      <c r="AF23" s="9">
-        <f t="shared" si="13"/>
-        <v>38.5</v>
+      <c r="AF23" s="2">
+        <f t="shared" si="5"/>
+        <v>28.359679999999997</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B24" t="s">
@@ -3419,37 +3490,39 @@
       <c r="X24" s="7">
         <v>0</v>
       </c>
-      <c r="Y24" s="9">
-        <v>20</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>10</v>
+      <c r="Y24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="9">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="11"/>
-        <v>10</v>
+      <c r="AB24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" si="12"/>
-        <v>42</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AE24" s="8"/>
-      <c r="AF24" s="9">
-        <f t="shared" si="13"/>
-        <v>30</v>
+      <c r="AF24" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B25" t="s">
@@ -3518,37 +3591,39 @@
       <c r="X25" s="7">
         <v>0</v>
       </c>
-      <c r="Y25" s="9">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="9">
-        <v>10</v>
+      <c r="Y25" s="2">
+        <f t="shared" si="6"/>
+        <v>34.503680000000003</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="7"/>
+        <v>10.480639999999999</v>
       </c>
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-      <c r="AB25" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AC25" s="9">
-        <f t="shared" si="11"/>
-        <v>10</v>
+      <c r="AB25" s="2">
+        <f t="shared" si="0"/>
+        <v>34.503680000000003</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="1"/>
+        <v>10.480639999999999</v>
       </c>
       <c r="AD25" s="8">
-        <f t="shared" si="12"/>
-        <v>19.05</v>
+        <f t="shared" si="8"/>
+        <v>62.300928000000006</v>
       </c>
       <c r="AE25" s="8"/>
-      <c r="AF25" s="9">
-        <f t="shared" si="13"/>
-        <v>13</v>
+      <c r="AF25" s="2">
+        <f t="shared" si="5"/>
+        <v>44.984320000000004</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B26" t="s">
@@ -3617,37 +3692,39 @@
       <c r="X26" s="7">
         <v>0</v>
       </c>
-      <c r="Y26" s="9">
-        <v>30</v>
-      </c>
-      <c r="Z26" s="9">
-        <v>14</v>
+      <c r="Y26" s="2">
+        <f t="shared" si="6"/>
+        <v>22.561</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="7"/>
+        <v>6.8529999999999998</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-      <c r="AB26" s="9">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="AC26" s="9">
-        <f t="shared" si="11"/>
-        <v>14</v>
+      <c r="AB26" s="2">
+        <f t="shared" si="0"/>
+        <v>22.561</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8529999999999998</v>
       </c>
       <c r="AD26" s="8">
-        <f t="shared" si="12"/>
-        <v>61.5</v>
+        <f t="shared" si="8"/>
+        <v>40.736850000000004</v>
       </c>
       <c r="AE26" s="8"/>
-      <c r="AF26" s="9">
-        <f t="shared" si="13"/>
-        <v>44</v>
+      <c r="AF26" s="2">
+        <f t="shared" si="5"/>
+        <v>29.414000000000001</v>
       </c>
       <c r="AP26" s="2"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B27" t="s">
@@ -3716,37 +3793,39 @@
       <c r="X27" s="7">
         <v>0</v>
       </c>
-      <c r="Y27" s="9">
-        <v>32</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>16</v>
+      <c r="Y27" s="2">
+        <f t="shared" si="6"/>
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22783999999999999</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-      <c r="AB27" s="9">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="AC27" s="9">
-        <f t="shared" si="11"/>
-        <v>16</v>
+      <c r="AB27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22783999999999999</v>
       </c>
       <c r="AD27" s="8">
-        <f t="shared" si="12"/>
-        <v>67.2</v>
+        <f t="shared" si="8"/>
+        <v>1.354368</v>
       </c>
       <c r="AE27" s="8"/>
-      <c r="AF27" s="9">
-        <f t="shared" si="13"/>
-        <v>48</v>
+      <c r="AF27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AP27" s="2"/>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B28" t="s">
@@ -3815,37 +3894,39 @@
       <c r="X28" s="7">
         <v>0</v>
       </c>
-      <c r="Y28" s="9">
-        <v>46</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>18</v>
+      <c r="Y28" s="2">
+        <f t="shared" si="6"/>
+        <v>32.874600000000001</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="7"/>
+        <v>9.9857999999999993</v>
       </c>
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-      <c r="AB28" s="9">
-        <f t="shared" si="10"/>
-        <v>46</v>
-      </c>
-      <c r="AC28" s="9">
-        <f t="shared" si="11"/>
-        <v>18</v>
+      <c r="AB28" s="2">
+        <f t="shared" si="0"/>
+        <v>32.874600000000001</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9857999999999993</v>
       </c>
       <c r="AD28" s="8">
-        <f t="shared" si="12"/>
-        <v>89.1</v>
+        <f t="shared" si="8"/>
+        <v>59.359410000000011</v>
       </c>
       <c r="AE28" s="8"/>
-      <c r="AF28" s="9">
-        <f t="shared" si="13"/>
-        <v>64</v>
+      <c r="AF28" s="2">
+        <f t="shared" si="5"/>
+        <v>42.860399999999998</v>
       </c>
       <c r="AP28" s="2"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B29" t="s">
@@ -3914,37 +3995,39 @@
       <c r="X29" s="7">
         <v>0</v>
       </c>
-      <c r="Y29" s="9">
-        <v>28</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>15</v>
+      <c r="Y29" s="2">
+        <f t="shared" si="6"/>
+        <v>42.004480000000001</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="7"/>
+        <v>12.759040000000001</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-      <c r="AB29" s="9">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="AC29" s="9">
-        <f t="shared" si="11"/>
-        <v>15</v>
+      <c r="AB29" s="2">
+        <f t="shared" si="0"/>
+        <v>42.004480000000001</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="1"/>
+        <v>12.759040000000001</v>
       </c>
       <c r="AD29" s="8">
-        <f t="shared" si="12"/>
-        <v>60.300000000000004</v>
+        <f t="shared" si="8"/>
+        <v>75.844608000000008</v>
       </c>
       <c r="AE29" s="8"/>
-      <c r="AF29" s="9">
-        <f t="shared" si="13"/>
-        <v>43</v>
+      <c r="AF29" s="2">
+        <f t="shared" si="5"/>
+        <v>54.76352</v>
       </c>
       <c r="AP29" s="2"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B30" t="s">
@@ -4013,37 +4096,39 @@
       <c r="X30" s="7">
         <v>0</v>
       </c>
-      <c r="Y30" s="9">
-        <v>34</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>14</v>
+      <c r="Y30" s="2">
+        <f t="shared" si="6"/>
+        <v>50.923400000000001</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="7"/>
+        <v>15.4682</v>
       </c>
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-      <c r="AB30" s="9">
-        <f t="shared" si="10"/>
-        <v>34</v>
-      </c>
-      <c r="AC30" s="9">
-        <f t="shared" si="11"/>
-        <v>14</v>
+      <c r="AB30" s="2">
+        <f t="shared" si="0"/>
+        <v>50.923400000000001</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="1"/>
+        <v>15.4682</v>
       </c>
       <c r="AD30" s="8">
-        <f t="shared" si="12"/>
-        <v>66.900000000000006</v>
+        <f t="shared" si="8"/>
+        <v>91.948890000000006</v>
       </c>
       <c r="AE30" s="8"/>
-      <c r="AF30" s="9">
-        <f t="shared" si="13"/>
-        <v>48</v>
+      <c r="AF30" s="2">
+        <f t="shared" si="5"/>
+        <v>66.391599999999997</v>
       </c>
       <c r="AP30" s="2"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B31" t="s">
@@ -4112,37 +4197,39 @@
       <c r="X31" s="7">
         <v>0</v>
       </c>
-      <c r="Y31" s="9">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="9">
-        <v>10</v>
+      <c r="Y31" s="2">
+        <f t="shared" si="6"/>
+        <v>36.003839999999997</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="7"/>
+        <v>10.936319999999998</v>
       </c>
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-      <c r="AB31" s="9">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="AC31" s="9">
-        <f t="shared" si="11"/>
-        <v>10</v>
+      <c r="AB31" s="2">
+        <f t="shared" si="0"/>
+        <v>36.003839999999997</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="1"/>
+        <v>10.936319999999998</v>
       </c>
       <c r="AD31" s="8">
-        <f t="shared" si="12"/>
-        <v>36.6</v>
+        <f t="shared" si="8"/>
+        <v>65.009664000000001</v>
       </c>
       <c r="AE31" s="8"/>
-      <c r="AF31" s="9">
-        <f t="shared" si="13"/>
-        <v>26</v>
+      <c r="AF31" s="2">
+        <f t="shared" si="5"/>
+        <v>46.940159999999992</v>
       </c>
       <c r="AP31" s="2"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B32" t="s">
@@ -4211,19 +4298,34 @@
       <c r="X32" s="4">
         <v>0</v>
       </c>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
+      <c r="Y32" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
+      <c r="AB32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
-      <c r="AF32" s="9"/>
+      <c r="AF32" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AP32" s="2"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B33" t="s">
@@ -4292,37 +4394,39 @@
       <c r="X33" s="7">
         <v>0</v>
       </c>
-      <c r="Y33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="9">
-        <v>10</v>
+      <c r="Y33" s="2">
+        <f t="shared" si="6"/>
+        <v>38.031399999999998</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="7"/>
+        <v>11.552200000000001</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-      <c r="AB33" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="9">
-        <f t="shared" si="11"/>
-        <v>10</v>
+      <c r="AB33" s="2">
+        <f t="shared" si="0"/>
+        <v>38.031399999999998</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="1"/>
+        <v>11.552200000000001</v>
       </c>
       <c r="AD33" s="8">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>68.670690000000008</v>
       </c>
       <c r="AE33" s="8"/>
-      <c r="AF33" s="9">
-        <f t="shared" si="13"/>
-        <v>10</v>
+      <c r="AF33" s="2">
+        <f t="shared" si="5"/>
+        <v>49.583599999999997</v>
       </c>
       <c r="AP33" s="2"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -4391,36 +4495,38 @@
       <c r="X34" s="7">
         <v>0</v>
       </c>
-      <c r="Y34" s="9">
-        <v>11</v>
-      </c>
-      <c r="Z34" s="9">
-        <v>8</v>
+      <c r="Y34" s="2">
+        <f t="shared" si="6"/>
+        <v>21.00224</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="7"/>
+        <v>6.3795200000000003</v>
       </c>
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-      <c r="AB34" s="9">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="AC34" s="9">
-        <f t="shared" si="11"/>
-        <v>8</v>
+      <c r="AB34" s="2">
+        <f t="shared" si="0"/>
+        <v>21.00224</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3795200000000003</v>
       </c>
       <c r="AD34" s="8">
-        <f t="shared" si="12"/>
-        <v>26.85</v>
+        <f t="shared" si="8"/>
+        <v>37.922304000000004</v>
       </c>
       <c r="AE34" s="8"/>
-      <c r="AF34" s="9">
-        <f t="shared" si="13"/>
-        <v>19</v>
+      <c r="AF34" s="2">
+        <f t="shared" si="5"/>
+        <v>27.38176</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B35" t="s">
@@ -4489,36 +4595,38 @@
       <c r="X35" s="7">
         <v>0</v>
       </c>
-      <c r="Y35" s="9">
-        <v>28</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>22</v>
+      <c r="Y35" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-      <c r="AB35" s="9">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="AC35" s="9">
-        <f t="shared" si="11"/>
-        <v>22</v>
+      <c r="AB35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD35" s="8">
-        <f t="shared" si="12"/>
-        <v>70.800000000000011</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AE35" s="8"/>
-      <c r="AF35" s="9">
-        <f t="shared" si="13"/>
-        <v>50</v>
+      <c r="AF35" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B36" t="s">
@@ -4587,36 +4695,38 @@
       <c r="X36" s="7">
         <v>0</v>
       </c>
-      <c r="Y36" s="9">
-        <v>32</v>
-      </c>
-      <c r="Z36" s="9">
-        <v>15</v>
+      <c r="Y36" s="2">
+        <f t="shared" si="6"/>
+        <v>3.7504</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1392</v>
       </c>
       <c r="AA36" s="3">
         <v>0</v>
       </c>
-      <c r="AB36" s="9">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="AC36" s="9">
-        <f t="shared" si="11"/>
-        <v>15</v>
+      <c r="AB36" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7504</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1392</v>
       </c>
       <c r="AD36" s="8">
-        <f t="shared" si="12"/>
-        <v>65.7</v>
+        <f t="shared" si="8"/>
+        <v>6.7718400000000001</v>
       </c>
       <c r="AE36" s="8"/>
-      <c r="AF36" s="9">
-        <f t="shared" si="13"/>
-        <v>47</v>
+      <c r="AF36" s="2">
+        <f t="shared" si="5"/>
+        <v>4.8895999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B37" t="s">
@@ -4685,36 +4795,38 @@
       <c r="X37" s="7">
         <v>0</v>
       </c>
-      <c r="Y37" s="9">
-        <v>59</v>
-      </c>
-      <c r="Z37" s="9">
-        <v>32.5</v>
+      <c r="Y37" s="2">
+        <f t="shared" si="6"/>
+        <v>0.64460000000000006</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1958</v>
       </c>
       <c r="AA37" s="3">
         <v>0</v>
       </c>
-      <c r="AB37" s="9">
-        <f t="shared" si="10"/>
-        <v>59</v>
-      </c>
-      <c r="AC37" s="9">
-        <f t="shared" si="11"/>
-        <v>32.5</v>
+      <c r="AB37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64460000000000006</v>
+      </c>
+      <c r="AC37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1958</v>
       </c>
       <c r="AD37" s="8">
-        <f t="shared" si="12"/>
-        <v>128.4</v>
+        <f t="shared" si="8"/>
+        <v>1.1639100000000002</v>
       </c>
       <c r="AE37" s="8"/>
-      <c r="AF37" s="9">
-        <f t="shared" si="13"/>
-        <v>91.5</v>
+      <c r="AF37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.84040000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B38" t="s">
@@ -4783,36 +4895,38 @@
       <c r="X38" s="7">
         <v>0</v>
       </c>
-      <c r="Y38" s="9">
-        <v>45</v>
-      </c>
-      <c r="Z38" s="9">
-        <v>17</v>
+      <c r="Y38" s="2">
+        <f t="shared" si="6"/>
+        <v>37.503999999999998</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="7"/>
+        <v>11.391999999999999</v>
       </c>
       <c r="AA38" s="3">
         <v>0</v>
       </c>
-      <c r="AB38" s="9">
-        <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="AC38" s="9">
-        <f t="shared" si="11"/>
-        <v>17</v>
+      <c r="AB38" s="2">
+        <f t="shared" si="0"/>
+        <v>37.503999999999998</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" si="1"/>
+        <v>11.391999999999999</v>
       </c>
       <c r="AD38" s="8">
-        <f t="shared" si="12"/>
-        <v>86.25</v>
+        <f t="shared" si="8"/>
+        <v>67.718400000000003</v>
       </c>
       <c r="AE38" s="8"/>
-      <c r="AF38" s="9">
-        <f t="shared" si="13"/>
-        <v>62</v>
+      <c r="AF38" s="2">
+        <f t="shared" si="5"/>
+        <v>48.896000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B39" t="s">
@@ -4881,36 +4995,38 @@
       <c r="X39" s="7">
         <v>0</v>
       </c>
-      <c r="Y39" s="9">
-        <v>55</v>
-      </c>
-      <c r="Z39" s="9">
-        <v>32</v>
+      <c r="Y39" s="2">
+        <f t="shared" si="6"/>
+        <v>36.0976</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="7"/>
+        <v>10.9648</v>
       </c>
       <c r="AA39" s="3">
         <v>0</v>
       </c>
-      <c r="AB39" s="9">
-        <f t="shared" si="10"/>
-        <v>55</v>
-      </c>
-      <c r="AC39" s="9">
-        <f t="shared" si="11"/>
-        <v>32</v>
+      <c r="AB39" s="2">
+        <f t="shared" si="0"/>
+        <v>36.0976</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="1"/>
+        <v>10.9648</v>
       </c>
       <c r="AD39" s="8">
-        <f t="shared" si="12"/>
-        <v>122.25</v>
+        <f t="shared" si="8"/>
+        <v>65.178960000000004</v>
       </c>
       <c r="AE39" s="8"/>
-      <c r="AF39" s="9">
-        <f t="shared" si="13"/>
-        <v>87</v>
+      <c r="AF39" s="2">
+        <f t="shared" si="5"/>
+        <v>47.062399999999997</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B40" t="s">
@@ -4979,36 +5095,38 @@
       <c r="X40" s="7">
         <v>0</v>
       </c>
-      <c r="Y40" s="9">
-        <v>36</v>
-      </c>
-      <c r="Z40" s="9">
-        <v>14</v>
+      <c r="Y40" s="2">
+        <f t="shared" si="6"/>
+        <v>77.258240000000001</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="7"/>
+        <v>23.46752</v>
       </c>
       <c r="AA40" s="3">
         <v>0</v>
       </c>
-      <c r="AB40" s="9">
-        <f t="shared" si="10"/>
-        <v>36</v>
-      </c>
-      <c r="AC40" s="9">
-        <f t="shared" si="11"/>
-        <v>14</v>
+      <c r="AB40" s="2">
+        <f t="shared" si="0"/>
+        <v>77.258240000000001</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" si="1"/>
+        <v>23.46752</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" si="12"/>
-        <v>69.599999999999994</v>
+        <f t="shared" si="8"/>
+        <v>139.49990400000002</v>
       </c>
       <c r="AE40" s="8"/>
-      <c r="AF40" s="9">
-        <f t="shared" si="13"/>
-        <v>50</v>
+      <c r="AF40" s="2">
+        <f t="shared" si="5"/>
+        <v>100.72576000000001</v>
       </c>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B41" t="s">
@@ -5077,31 +5195,33 @@
       <c r="X41" s="7">
         <v>0</v>
       </c>
-      <c r="Y41" s="9">
-        <v>47</v>
-      </c>
-      <c r="Z41" s="9">
-        <v>23</v>
+      <c r="Y41" s="2">
+        <f t="shared" si="6"/>
+        <v>50.278800000000004</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="7"/>
+        <v>15.272400000000001</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-      <c r="AB41" s="9">
-        <f t="shared" si="10"/>
-        <v>47</v>
-      </c>
-      <c r="AC41" s="9">
-        <f t="shared" si="11"/>
-        <v>23</v>
+      <c r="AB41" s="2">
+        <f t="shared" si="0"/>
+        <v>50.278800000000004</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" si="1"/>
+        <v>15.272400000000001</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="12"/>
-        <v>97.95</v>
+        <f t="shared" si="8"/>
+        <v>90.784980000000019</v>
       </c>
       <c r="AE41" s="8"/>
-      <c r="AF41" s="9">
-        <f t="shared" si="13"/>
-        <v>70</v>
+      <c r="AF41" s="2">
+        <f t="shared" si="5"/>
+        <v>65.551200000000009</v>
       </c>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">

--- a/Calculs/PH4/DataBase_PH4_FileB_MidStrip_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_MidStrip_V6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{AFDA80FC-A2B1-4E42-A4BC-FC30F30A3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F36483D4-28F1-4214-87B2-2B957F1A21BE}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{AFDA80FC-A2B1-4E42-A4BC-FC30F30A3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C15DC4-482B-45AB-A5FD-3AC2D53C9652}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
@@ -1090,7 +1090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ10" sqref="AJ10"/>
+      <selection pane="topRight" activeCell="T33" sqref="T33:T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,6 +1352,9 @@
       <c r="S3">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
         <v>7</v>
       </c>
@@ -1454,6 +1457,9 @@
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
         <v>0</v>
       </c>
@@ -1556,6 +1562,9 @@
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
         <v>0</v>
       </c>
@@ -1658,6 +1667,9 @@
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
         <v>0</v>
       </c>
@@ -1760,6 +1772,9 @@
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
         <v>0</v>
       </c>
@@ -1862,6 +1877,9 @@
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
         <v>0</v>
       </c>
@@ -1964,6 +1982,9 @@
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
         <v>0</v>
       </c>
@@ -2065,6 +2086,9 @@
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
         <v>0</v>
       </c>
@@ -2167,6 +2191,9 @@
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
         <v>0</v>
       </c>
@@ -2364,6 +2391,9 @@
       <c r="S13">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13">
         <v>5</v>
       </c>
@@ -2465,6 +2495,9 @@
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
         <v>0</v>
       </c>
@@ -2567,6 +2600,9 @@
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
         <v>0</v>
       </c>
@@ -2669,6 +2705,9 @@
       <c r="S16">
         <v>0</v>
       </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
       <c r="U16">
         <v>0</v>
       </c>
@@ -2771,6 +2810,9 @@
       <c r="S17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
       <c r="U17">
         <v>0</v>
       </c>
@@ -2872,6 +2914,9 @@
       <c r="S18">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
       <c r="U18">
         <v>5</v>
       </c>
@@ -2974,6 +3019,9 @@
       <c r="S19">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
       <c r="U19">
         <v>5</v>
       </c>
@@ -3076,6 +3124,9 @@
       <c r="S20">
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
       <c r="U20">
         <v>0</v>
       </c>
@@ -3178,6 +3229,9 @@
       <c r="S21">
         <v>0</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
       <c r="U21">
         <v>0</v>
       </c>
@@ -3377,6 +3431,9 @@
       <c r="S23">
         <v>0</v>
       </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
       <c r="U23">
         <v>0</v>
       </c>
@@ -3478,6 +3535,9 @@
       <c r="S24">
         <v>0</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
       <c r="U24">
         <v>0</v>
       </c>
@@ -3579,6 +3639,9 @@
       <c r="S25">
         <v>0</v>
       </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
       <c r="U25">
         <v>0</v>
       </c>
@@ -3680,6 +3743,9 @@
       <c r="S26">
         <v>0</v>
       </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
       <c r="U26">
         <v>0</v>
       </c>
@@ -3781,6 +3847,9 @@
       <c r="S27">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
       <c r="U27">
         <v>5</v>
       </c>
@@ -3882,6 +3951,9 @@
       <c r="S28">
         <v>0</v>
       </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
       <c r="U28">
         <v>0</v>
       </c>
@@ -3983,6 +4055,9 @@
       <c r="S29">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
       <c r="U29">
         <v>5</v>
       </c>
@@ -4084,6 +4159,9 @@
       <c r="S30">
         <v>0</v>
       </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
       <c r="U30">
         <v>0</v>
       </c>
@@ -4185,6 +4263,9 @@
       <c r="S31">
         <v>0</v>
       </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
       <c r="U31">
         <v>0</v>
       </c>
@@ -4382,6 +4463,9 @@
       <c r="S33">
         <v>0</v>
       </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
       <c r="U33">
         <v>0</v>
       </c>
@@ -4483,6 +4567,9 @@
       <c r="S34">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
       <c r="U34">
         <v>5</v>
       </c>
@@ -4583,6 +4670,9 @@
       <c r="S35">
         <v>0</v>
       </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
       <c r="U35">
         <v>0</v>
       </c>
@@ -4683,6 +4773,9 @@
       <c r="S36">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
       <c r="U36">
         <v>5</v>
       </c>
@@ -4783,6 +4876,9 @@
       <c r="S37">
         <v>0</v>
       </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
       <c r="U37">
         <v>0</v>
       </c>
@@ -4883,6 +4979,9 @@
       <c r="S38">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
       <c r="U38">
         <v>5</v>
       </c>
@@ -4983,6 +5082,9 @@
       <c r="S39">
         <v>0</v>
       </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
       <c r="U39">
         <v>0</v>
       </c>
@@ -5083,6 +5185,9 @@
       <c r="S40">
         <v>2.9099999999999999E-5</v>
       </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
       <c r="U40">
         <v>5</v>
       </c>
@@ -5181,6 +5286,9 @@
         <v>1</v>
       </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <v>0</v>
       </c>
       <c r="U41">

--- a/Calculs/PH4/DataBase_PH4_FileB_MidStrip_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_MidStrip_V6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{AFDA80FC-A2B1-4E42-A4BC-FC30F30A3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C15DC4-482B-45AB-A5FD-3AC2D53C9652}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F255282-8297-4E8F-B1C8-4FB21CC43CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +517,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -679,7 +685,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -691,6 +697,8 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -763,10 +771,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1088,14 +1092,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AQ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T33" sqref="T33:T41"/>
+      <selection pane="topRight" activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1293,7 +1297,7 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A41" si="3">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
@@ -1355,50 +1359,51 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>7</v>
+      <c r="U3" s="12">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V3" s="2">
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="W3" s="2">
-        <v>17.088000000000001</v>
+        <v>21</v>
       </c>
       <c r="X3" s="7">
         <v>0</v>
       </c>
       <c r="Y3" s="2">
         <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="2">
         <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
-        <v>17.088000000000001</v>
+        <v>20.7</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="1"/>
-        <v>17.088000000000001</v>
+        <v>20.7</v>
       </c>
       <c r="AD3" s="8">
         <f t="shared" ref="AD3" si="4">1.35*Y3+1.5*Z3</f>
-        <v>101.5776</v>
+        <v>87.75</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="2">
         <f t="shared" ref="AF3:AF41" si="5">AB3+AC3</f>
-        <v>73.343999999999994</v>
+        <v>62.7</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1464,46 +1469,46 @@
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <v>0.64460000000000006</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2">
-        <v>0.1958</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="X4" s="11">
+        <v>0.1</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ref="Y4:Y41" si="6">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),V4+X4*V4,IF(A3&lt;A4,V4-X5*V5/2,IF(A4&lt;A5,V4-(X3*V3)/2,V4-(X5*V5+X3*V3)/2))),0)</f>
-        <v>0.64460000000000006</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" ref="Z4:Z41" si="7">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),W4+X4*W4,IF(A3&lt;A4,W4-X5*W5/2,IF(A4&lt;A5,W4-(X3*W3)/2,W4-(X5*W5+X3*W3)/2))),0)</f>
-        <v>0.1958</v>
+        <v>6.6</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="0"/>
-        <v>0.64460000000000006</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="1"/>
-        <v>0.1958</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" ref="AD4:AD41" si="8">1.35*Y4+1.5*Z4</f>
-        <v>1.1639100000000002</v>
+        <v>9.8999999999999986</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="2">
         <f t="shared" si="5"/>
-        <v>0.84040000000000004</v>
+        <v>6.6</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1569,46 +1574,46 @@
         <v>0</v>
       </c>
       <c r="V5" s="2">
-        <v>29.253119999999999</v>
+        <v>22</v>
       </c>
       <c r="W5" s="2">
-        <v>8.8857599999999994</v>
+        <v>23</v>
       </c>
       <c r="X5" s="7">
         <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="6"/>
-        <v>29.253119999999999</v>
+        <v>22</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="7"/>
-        <v>8.8857599999999994</v>
+        <v>22.7</v>
       </c>
       <c r="AA5" s="3">
         <v>0</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="0"/>
-        <v>29.253119999999999</v>
+        <v>22</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="1"/>
-        <v>8.8857599999999994</v>
+        <v>22.7</v>
       </c>
       <c r="AD5" s="8">
         <f t="shared" si="8"/>
-        <v>52.820352</v>
+        <v>63.75</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="2">
         <f t="shared" si="5"/>
-        <v>38.13888</v>
+        <v>44.7</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1674,46 +1679,46 @@
         <v>0</v>
       </c>
       <c r="V6" s="2">
-        <v>30.296199999999999</v>
+        <v>27</v>
       </c>
       <c r="W6" s="2">
-        <v>9.2026000000000003</v>
+        <v>13</v>
       </c>
       <c r="X6" s="7">
         <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="6"/>
-        <v>30.296199999999999</v>
+        <v>27</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="7"/>
-        <v>9.2026000000000003</v>
+        <v>13</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="0"/>
-        <v>30.296199999999999</v>
+        <v>27</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="1"/>
-        <v>9.2026000000000003</v>
+        <v>13</v>
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="8"/>
-        <v>54.703769999999999</v>
+        <v>55.95</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="2">
         <f t="shared" si="5"/>
-        <v>39.498800000000003</v>
+        <v>40</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1779,46 +1784,46 @@
         <v>0</v>
       </c>
       <c r="V7" s="2">
-        <v>78.758399999999995</v>
+        <v>60</v>
       </c>
       <c r="W7" s="2">
-        <v>23.923200000000001</v>
+        <v>33</v>
       </c>
       <c r="X7" s="7">
         <v>0</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="6"/>
-        <v>78.758399999999995</v>
+        <v>60</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="7"/>
-        <v>23.923200000000001</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="3">
         <v>0</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="0"/>
-        <v>78.758399999999995</v>
+        <v>60</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="1"/>
-        <v>23.923200000000001</v>
+        <v>33</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="8"/>
-        <v>142.20864</v>
+        <v>130.5</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="2">
         <f t="shared" si="5"/>
-        <v>102.6816</v>
+        <v>93</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1884,46 +1889,46 @@
         <v>0</v>
       </c>
       <c r="V8" s="2">
-        <v>50.923400000000001</v>
+        <v>45</v>
       </c>
       <c r="W8" s="2">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="6"/>
-        <v>50.923400000000001</v>
+        <v>45</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="7"/>
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="0"/>
-        <v>50.923400000000001</v>
+        <v>45</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="1"/>
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="8"/>
-        <v>91.948890000000006</v>
+        <v>81.75</v>
       </c>
       <c r="AE8" s="8"/>
       <c r="AF8" s="2">
         <f t="shared" si="5"/>
-        <v>66.391599999999997</v>
+        <v>59</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1989,45 +1994,45 @@
         <v>0</v>
       </c>
       <c r="V9" s="2">
-        <v>76.508160000000004</v>
+        <v>59</v>
       </c>
       <c r="W9" s="2">
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="X9" s="7">
         <v>0</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="6"/>
-        <v>76.508160000000004</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="7"/>
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="0"/>
-        <v>76.508160000000004</v>
+        <v>59</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="1"/>
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="8"/>
-        <v>138.14553600000002</v>
+        <v>127.65</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="2">
         <f t="shared" si="5"/>
-        <v>99.747839999999997</v>
+        <v>91</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2093,46 +2098,46 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>33.519199999999998</v>
+        <v>32</v>
       </c>
       <c r="W10" s="2">
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="X10" s="7">
         <v>0</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="6"/>
-        <v>33.519199999999998</v>
+        <v>32</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="7"/>
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="0"/>
-        <v>33.519199999999998</v>
+        <v>32</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="1"/>
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="8"/>
-        <v>60.523319999999998</v>
+        <v>59.7</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="2">
         <f t="shared" si="5"/>
-        <v>43.700800000000001</v>
+        <v>43</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2198,45 +2203,45 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>82.508800000000008</v>
+        <v>64</v>
       </c>
       <c r="W11" s="2">
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="X11" s="7">
         <v>0</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="6"/>
-        <v>82.508800000000008</v>
+        <v>64</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="7"/>
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="AA11" s="3">
         <v>0</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="0"/>
-        <v>82.508800000000008</v>
+        <v>64</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="1"/>
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="8"/>
-        <v>148.98048000000003</v>
+        <v>135.9</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="2">
         <f t="shared" si="5"/>
-        <v>107.5712</v>
+        <v>97</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2298,12 +2303,8 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
       <c r="X12" s="4">
         <v>0</v>
       </c>
@@ -2332,7 +2333,7 @@
       </c>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>IF(B13=B11,A11,A11+1)</f>
         <v>3</v>
@@ -2394,49 +2395,50 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <v>5</v>
+      <c r="U13" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V13" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W13" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA13" s="3">
         <v>0</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>64.050000000000011</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2502,46 +2504,46 @@
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>42.754560000000005</v>
+        <v>22</v>
       </c>
       <c r="W14" s="2">
-        <v>12.986880000000001</v>
+        <v>12</v>
       </c>
       <c r="X14" s="7">
         <v>0</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="6"/>
-        <v>42.754560000000005</v>
+        <v>22</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="7"/>
-        <v>12.986880000000001</v>
+        <v>12</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="0"/>
-        <v>42.754560000000005</v>
+        <v>22</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="1"/>
-        <v>12.986880000000001</v>
+        <v>12</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="8"/>
-        <v>77.198976000000016</v>
+        <v>47.7</v>
       </c>
       <c r="AE14" s="8"/>
       <c r="AF14" s="2">
         <f t="shared" si="5"/>
-        <v>55.741440000000004</v>
+        <v>34</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2607,46 +2609,46 @@
         <v>0</v>
       </c>
       <c r="V15" s="2">
-        <v>30.296199999999999</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>9.2026000000000003</v>
+        <v>10</v>
       </c>
       <c r="X15" s="7">
         <v>0</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="6"/>
-        <v>30.296199999999999</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="7"/>
-        <v>9.2026000000000003</v>
+        <v>10</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="0"/>
-        <v>30.296199999999999</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="1"/>
-        <v>9.2026000000000003</v>
+        <v>10</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="8"/>
-        <v>54.703769999999999</v>
+        <v>15</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="2">
         <f t="shared" si="5"/>
-        <v>39.498800000000003</v>
+        <v>10</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2712,46 +2714,46 @@
         <v>0</v>
       </c>
       <c r="V16" s="2">
-        <v>0.75007999999999997</v>
+        <v>32</v>
       </c>
       <c r="W16" s="2">
-        <v>0.22783999999999999</v>
+        <v>16</v>
       </c>
       <c r="X16" s="7">
         <v>0</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="6"/>
-        <v>0.75007999999999997</v>
+        <v>32</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="7"/>
-        <v>0.22783999999999999</v>
+        <v>16</v>
       </c>
       <c r="AA16" s="3">
         <v>0</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="0"/>
-        <v>0.75007999999999997</v>
+        <v>32</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="1"/>
-        <v>0.22783999999999999</v>
+        <v>16</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="8"/>
-        <v>1.354368</v>
+        <v>67.2</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="2">
         <f t="shared" si="5"/>
-        <v>0.9779199999999999</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2807,55 +2809,56 @@
       <c r="R17">
         <v>1</v>
       </c>
-      <c r="S17">
-        <v>0</v>
+      <c r="S17" s="12">
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>0</v>
+      <c r="U17" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V17" s="2">
-        <v>36.742199999999997</v>
+        <v>32</v>
       </c>
       <c r="W17" s="2">
-        <v>11.160600000000001</v>
+        <v>16</v>
       </c>
       <c r="X17" s="7">
         <v>0</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="6"/>
-        <v>36.742199999999997</v>
+        <v>32</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="7"/>
-        <v>11.160600000000001</v>
+        <v>16</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="0"/>
-        <v>36.742199999999997</v>
+        <v>32</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="1"/>
-        <v>11.160600000000001</v>
+        <v>16</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="8"/>
-        <v>66.342870000000005</v>
+        <v>67.2</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="2">
         <f t="shared" si="5"/>
-        <v>47.902799999999999</v>
+        <v>48</v>
       </c>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2917,50 +2920,51 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>5</v>
+      <c r="U18" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V18" s="2">
-        <v>41.254400000000004</v>
+        <v>47</v>
       </c>
       <c r="W18" s="2">
-        <v>12.5312</v>
+        <v>18</v>
       </c>
       <c r="X18" s="7">
         <v>0</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="6"/>
-        <v>41.254400000000004</v>
+        <v>47</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="7"/>
-        <v>12.5312</v>
+        <v>18</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="0"/>
-        <v>41.254400000000004</v>
+        <v>47</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="1"/>
-        <v>12.5312</v>
+        <v>18</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="8"/>
-        <v>74.490240000000014</v>
+        <v>90.45</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="2">
         <f t="shared" si="5"/>
-        <v>53.785600000000002</v>
+        <v>65</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3022,50 +3026,51 @@
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19">
-        <v>5</v>
+      <c r="U19" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V19" s="2">
-        <v>52.212600000000002</v>
+        <v>25</v>
       </c>
       <c r="W19" s="2">
-        <v>15.8598</v>
+        <v>13.6</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="6"/>
-        <v>52.212600000000002</v>
+        <v>25</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="7"/>
-        <v>15.8598</v>
+        <v>13.6</v>
       </c>
       <c r="AA19" s="3">
         <v>0</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="0"/>
-        <v>52.212600000000002</v>
+        <v>25</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="1"/>
-        <v>15.8598</v>
+        <v>13.6</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="8"/>
-        <v>94.276710000000008</v>
+        <v>54.15</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="2">
         <f t="shared" si="5"/>
-        <v>68.072400000000002</v>
+        <v>38.6</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3131,46 +3136,46 @@
         <v>0</v>
       </c>
       <c r="V20" s="2">
-        <v>32.253439999999998</v>
+        <v>34</v>
       </c>
       <c r="W20" s="2">
-        <v>9.7971199999999996</v>
+        <v>14</v>
       </c>
       <c r="X20" s="7">
         <v>0</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="6"/>
-        <v>32.253439999999998</v>
+        <v>34</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="7"/>
-        <v>9.7971199999999996</v>
+        <v>14</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="0"/>
-        <v>32.253439999999998</v>
+        <v>34</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="1"/>
-        <v>9.7971199999999996</v>
+        <v>14</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="8"/>
-        <v>58.237824000000003</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="AE20" s="8"/>
       <c r="AF20" s="2">
         <f t="shared" si="5"/>
-        <v>42.050559999999997</v>
+        <v>48</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3236,46 +3241,46 @@
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>38.675999999999995</v>
+        <v>17</v>
       </c>
       <c r="W21" s="2">
-        <v>11.747999999999999</v>
+        <v>9</v>
       </c>
       <c r="X21" s="7">
         <v>0</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="6"/>
-        <v>38.675999999999995</v>
+        <v>17</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="7"/>
-        <v>11.747999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="0"/>
-        <v>38.675999999999995</v>
+        <v>17</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="1"/>
-        <v>11.747999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="8"/>
-        <v>69.834599999999995</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="2">
         <f t="shared" si="5"/>
-        <v>50.423999999999992</v>
+        <v>26</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3337,12 +3342,8 @@
       <c r="U22" s="4">
         <v>0</v>
       </c>
-      <c r="V22" s="6">
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
       <c r="X22" s="4">
         <v>0</v>
       </c>
@@ -3372,7 +3373,7 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3438,45 +3439,45 @@
         <v>0</v>
       </c>
       <c r="V23" s="2">
-        <v>21.752319999999997</v>
+        <v>27</v>
       </c>
       <c r="W23" s="2">
-        <v>6.607359999999999</v>
+        <v>11.5</v>
       </c>
       <c r="X23" s="7">
         <v>0</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="6"/>
-        <v>21.752319999999997</v>
+        <v>27</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="7"/>
-        <v>6.607359999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="0"/>
-        <v>21.752319999999997</v>
+        <v>27</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="1"/>
-        <v>6.607359999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="8"/>
-        <v>39.276671999999998</v>
+        <v>53.7</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="2">
         <f t="shared" si="5"/>
-        <v>28.359679999999997</v>
+        <v>38.5</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3542,45 +3543,45 @@
         <v>0</v>
       </c>
       <c r="V24" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X24" s="7">
         <v>0</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3646,45 +3647,45 @@
         <v>0</v>
       </c>
       <c r="V25" s="2">
-        <v>34.503680000000003</v>
+        <v>3</v>
       </c>
       <c r="W25" s="2">
-        <v>10.480639999999999</v>
+        <v>10</v>
       </c>
       <c r="X25" s="7">
         <v>0</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="6"/>
-        <v>34.503680000000003</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="7"/>
-        <v>10.480639999999999</v>
+        <v>10</v>
       </c>
       <c r="AA25" s="3">
         <v>0</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="0"/>
-        <v>34.503680000000003</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="1"/>
-        <v>10.480639999999999</v>
+        <v>10</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="8"/>
-        <v>62.300928000000006</v>
+        <v>19.05</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="2">
         <f t="shared" si="5"/>
-        <v>44.984320000000004</v>
+        <v>13</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3750,45 +3751,45 @@
         <v>0</v>
       </c>
       <c r="V26" s="2">
-        <v>22.561</v>
+        <v>30</v>
       </c>
       <c r="W26" s="2">
-        <v>6.8529999999999998</v>
+        <v>14</v>
       </c>
       <c r="X26" s="7">
         <v>0</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="6"/>
-        <v>22.561</v>
+        <v>30</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="7"/>
-        <v>6.8529999999999998</v>
+        <v>14</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="0"/>
-        <v>22.561</v>
+        <v>30</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="1"/>
-        <v>6.8529999999999998</v>
+        <v>14</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="8"/>
-        <v>40.736850000000004</v>
+        <v>61.5</v>
       </c>
       <c r="AE26" s="8"/>
       <c r="AF26" s="2">
         <f t="shared" si="5"/>
-        <v>29.414000000000001</v>
+        <v>44</v>
       </c>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3850,49 +3851,50 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>5</v>
+      <c r="U27" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V27" s="2">
-        <v>0.75007999999999997</v>
+        <v>32</v>
       </c>
       <c r="W27" s="2">
-        <v>0.22783999999999999</v>
+        <v>16</v>
       </c>
       <c r="X27" s="7">
         <v>0</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="6"/>
-        <v>0.75007999999999997</v>
+        <v>32</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="7"/>
-        <v>0.22783999999999999</v>
+        <v>16</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="0"/>
-        <v>0.75007999999999997</v>
+        <v>32</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="1"/>
-        <v>0.22783999999999999</v>
+        <v>16</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="8"/>
-        <v>1.354368</v>
+        <v>67.2</v>
       </c>
       <c r="AE27" s="8"/>
       <c r="AF27" s="2">
         <f t="shared" si="5"/>
-        <v>0.9779199999999999</v>
+        <v>48</v>
       </c>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3958,45 +3960,45 @@
         <v>0</v>
       </c>
       <c r="V28" s="2">
-        <v>32.874600000000001</v>
+        <v>46</v>
       </c>
       <c r="W28" s="2">
-        <v>9.9857999999999993</v>
+        <v>18</v>
       </c>
       <c r="X28" s="7">
         <v>0</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="6"/>
-        <v>32.874600000000001</v>
+        <v>46</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="7"/>
-        <v>9.9857999999999993</v>
+        <v>18</v>
       </c>
       <c r="AA28" s="3">
         <v>0</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="0"/>
-        <v>32.874600000000001</v>
+        <v>46</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="1"/>
-        <v>9.9857999999999993</v>
+        <v>18</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="8"/>
-        <v>59.359410000000011</v>
+        <v>89.1</v>
       </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="2">
         <f t="shared" si="5"/>
-        <v>42.860399999999998</v>
+        <v>64</v>
       </c>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4058,49 +4060,50 @@
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29">
-        <v>5</v>
+      <c r="U29" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V29" s="2">
-        <v>42.004480000000001</v>
+        <v>28</v>
       </c>
       <c r="W29" s="2">
-        <v>12.759040000000001</v>
+        <v>15</v>
       </c>
       <c r="X29" s="7">
         <v>0</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="6"/>
-        <v>42.004480000000001</v>
+        <v>28</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="7"/>
-        <v>12.759040000000001</v>
+        <v>15</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="0"/>
-        <v>42.004480000000001</v>
+        <v>28</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="1"/>
-        <v>12.759040000000001</v>
+        <v>15</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="8"/>
-        <v>75.844608000000008</v>
+        <v>60.300000000000004</v>
       </c>
       <c r="AE29" s="8"/>
       <c r="AF29" s="2">
         <f t="shared" si="5"/>
-        <v>54.76352</v>
+        <v>43</v>
       </c>
       <c r="AP29" s="2"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4166,45 +4169,45 @@
         <v>0</v>
       </c>
       <c r="V30" s="2">
-        <v>50.923400000000001</v>
+        <v>34</v>
       </c>
       <c r="W30" s="2">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="X30" s="7">
         <v>0</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="6"/>
-        <v>50.923400000000001</v>
+        <v>34</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="7"/>
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AA30" s="3">
         <v>0</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="0"/>
-        <v>50.923400000000001</v>
+        <v>34</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="1"/>
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="8"/>
-        <v>91.948890000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="AE30" s="8"/>
       <c r="AF30" s="2">
         <f t="shared" si="5"/>
-        <v>66.391599999999997</v>
+        <v>48</v>
       </c>
       <c r="AP30" s="2"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4270,45 +4273,45 @@
         <v>0</v>
       </c>
       <c r="V31" s="2">
-        <v>36.003839999999997</v>
+        <v>16</v>
       </c>
       <c r="W31" s="2">
-        <v>10.936319999999998</v>
+        <v>10</v>
       </c>
       <c r="X31" s="7">
         <v>0</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="6"/>
-        <v>36.003839999999997</v>
+        <v>16</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="7"/>
-        <v>10.936319999999998</v>
+        <v>10</v>
       </c>
       <c r="AA31" s="3">
         <v>0</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="0"/>
-        <v>36.003839999999997</v>
+        <v>16</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="1"/>
-        <v>10.936319999999998</v>
+        <v>10</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="8"/>
-        <v>65.009664000000001</v>
+        <v>36.6</v>
       </c>
       <c r="AE31" s="8"/>
       <c r="AF31" s="2">
         <f t="shared" si="5"/>
-        <v>46.940159999999992</v>
+        <v>26</v>
       </c>
       <c r="AP31" s="2"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4370,12 +4373,8 @@
       <c r="U32" s="4">
         <v>0</v>
       </c>
-      <c r="V32" s="6">
-        <v>0</v>
-      </c>
-      <c r="W32" s="6">
-        <v>0</v>
-      </c>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
       <c r="X32" s="4">
         <v>0</v>
       </c>
@@ -4404,7 +4403,7 @@
       </c>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4470,45 +4469,45 @@
         <v>0</v>
       </c>
       <c r="V33" s="2">
-        <v>38.031399999999998</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2">
-        <v>11.552200000000001</v>
+        <v>10</v>
       </c>
       <c r="X33" s="7">
         <v>0</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="6"/>
-        <v>38.031399999999998</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="7"/>
-        <v>11.552200000000001</v>
+        <v>10</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="0"/>
-        <v>38.031399999999998</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="1"/>
-        <v>11.552200000000001</v>
+        <v>10</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="8"/>
-        <v>68.670690000000008</v>
+        <v>15</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="2">
         <f t="shared" si="5"/>
-        <v>49.583599999999997</v>
+        <v>10</v>
       </c>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4570,48 +4569,49 @@
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34">
-        <v>5</v>
+      <c r="U34" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V34" s="2">
-        <v>21.00224</v>
+        <v>11</v>
       </c>
       <c r="W34" s="2">
-        <v>6.3795200000000003</v>
+        <v>8</v>
       </c>
       <c r="X34" s="7">
         <v>0</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="6"/>
-        <v>21.00224</v>
+        <v>11</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="7"/>
-        <v>6.3795200000000003</v>
+        <v>8</v>
       </c>
       <c r="AA34" s="3">
         <v>0</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="0"/>
-        <v>21.00224</v>
+        <v>11</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="1"/>
-        <v>6.3795200000000003</v>
+        <v>8</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="8"/>
-        <v>37.922304000000004</v>
+        <v>26.85</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="2">
         <f t="shared" si="5"/>
-        <v>27.38176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4677,44 +4677,44 @@
         <v>0</v>
       </c>
       <c r="V35" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W35" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X35" s="7">
         <v>0</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23.125</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.125</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>75.727499999999992</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+        <v>53.524999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4776,48 +4776,49 @@
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36">
-        <v>5</v>
+      <c r="U36" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V36" s="2">
-        <v>3.7504</v>
+        <v>32</v>
       </c>
       <c r="W36" s="2">
-        <v>1.1392</v>
-      </c>
-      <c r="X36" s="7">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="X36" s="11">
+        <v>-0.15</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="6"/>
-        <v>3.7504</v>
+        <v>27.2</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="7"/>
-        <v>1.1392</v>
+        <v>12.75</v>
       </c>
       <c r="AA36" s="3">
         <v>0</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="0"/>
-        <v>3.7504</v>
+        <v>27.2</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="1"/>
-        <v>1.1392</v>
+        <v>12.75</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="8"/>
-        <v>6.7718400000000001</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="2">
         <f t="shared" si="5"/>
-        <v>4.8895999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4883,44 +4884,44 @@
         <v>0</v>
       </c>
       <c r="V37" s="2">
-        <v>0.64460000000000006</v>
+        <v>59</v>
       </c>
       <c r="W37" s="2">
-        <v>0.1958</v>
+        <v>32.5</v>
       </c>
       <c r="X37" s="7">
         <v>0</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="6"/>
-        <v>0.64460000000000006</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="7"/>
-        <v>0.1958</v>
+        <v>36.174999999999997</v>
       </c>
       <c r="AA37" s="3">
         <v>0</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="0"/>
-        <v>0.64460000000000006</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="1"/>
-        <v>0.1958</v>
+        <v>36.174999999999997</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="8"/>
-        <v>1.1639100000000002</v>
+        <v>146.26500000000001</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="2">
         <f t="shared" si="5"/>
-        <v>0.84040000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+        <v>104.325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4982,48 +4983,49 @@
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38">
-        <v>5</v>
+      <c r="U38" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V38" s="2">
-        <v>37.503999999999998</v>
+        <v>45</v>
       </c>
       <c r="W38" s="2">
-        <v>11.391999999999999</v>
-      </c>
-      <c r="X38" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="X38" s="11">
+        <v>-0.3</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="6"/>
-        <v>37.503999999999998</v>
+        <v>31.5</v>
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="7"/>
-        <v>11.391999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="AA38" s="3">
         <v>0</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="0"/>
-        <v>37.503999999999998</v>
+        <v>31.5</v>
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="1"/>
-        <v>11.391999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="8"/>
-        <v>67.718400000000003</v>
+        <v>60.375000000000007</v>
       </c>
       <c r="AE38" s="8"/>
       <c r="AF38" s="2">
         <f t="shared" si="5"/>
-        <v>48.896000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5089,44 +5091,44 @@
         <v>0</v>
       </c>
       <c r="V39" s="2">
-        <v>36.0976</v>
+        <v>55</v>
       </c>
       <c r="W39" s="2">
-        <v>10.9648</v>
+        <v>32</v>
       </c>
       <c r="X39" s="7">
         <v>0</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="6"/>
-        <v>36.0976</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="7"/>
-        <v>10.9648</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="AA39" s="3">
         <v>0</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="0"/>
-        <v>36.0976</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="1"/>
-        <v>10.9648</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="8"/>
-        <v>65.178960000000004</v>
+        <v>142.14750000000001</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="2">
         <f t="shared" si="5"/>
-        <v>47.062399999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5188,48 +5190,49 @@
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40">
-        <v>5</v>
+      <c r="U40" s="12">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V40" s="2">
-        <v>77.258240000000001</v>
+        <v>36</v>
       </c>
       <c r="W40" s="2">
-        <v>23.46752</v>
-      </c>
-      <c r="X40" s="7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="X40" s="11">
+        <v>-0.2</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="6"/>
-        <v>77.258240000000001</v>
+        <v>28.8</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="7"/>
-        <v>23.46752</v>
+        <v>11.2</v>
       </c>
       <c r="AA40" s="3">
         <v>0</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="0"/>
-        <v>77.258240000000001</v>
+        <v>28.8</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="1"/>
-        <v>23.46752</v>
+        <v>11.2</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="8"/>
-        <v>139.49990400000002</v>
+        <v>55.68</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="2">
         <f t="shared" si="5"/>
-        <v>100.72576000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5295,44 +5298,44 @@
         <v>0</v>
       </c>
       <c r="V41" s="2">
-        <v>50.278800000000004</v>
+        <v>47</v>
       </c>
       <c r="W41" s="2">
-        <v>15.272400000000001</v>
+        <v>23</v>
       </c>
       <c r="X41" s="7">
         <v>0</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="6"/>
-        <v>50.278800000000004</v>
+        <v>50.6</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="7"/>
-        <v>15.272400000000001</v>
+        <v>24.4</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="0"/>
-        <v>50.278800000000004</v>
+        <v>50.6</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="1"/>
-        <v>15.272400000000001</v>
+        <v>24.4</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="8"/>
-        <v>90.784980000000019</v>
+        <v>104.91</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="2">
         <f t="shared" si="5"/>
-        <v>65.551200000000009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="X42" s="7"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -5343,7 +5346,7 @@
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="X43" s="7"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -5354,7 +5357,7 @@
       <c r="AE43" s="9"/>
       <c r="AF43" s="9"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
       <c r="X44" s="7"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -5365,7 +5368,7 @@
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
       <c r="X45" s="7"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
@@ -5376,7 +5379,7 @@
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="X46" s="7"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -5387,7 +5390,7 @@
       <c r="AE46" s="9"/>
       <c r="AF46" s="9"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="X47" s="7"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
@@ -5398,7 +5401,7 @@
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="X48" s="7"/>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
@@ -5409,7 +5412,7 @@
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
     </row>
-    <row r="49" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X49" s="7"/>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
@@ -5420,7 +5423,7 @@
       <c r="AE49" s="9"/>
       <c r="AF49" s="9"/>
     </row>
-    <row r="50" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X50" s="7"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
@@ -5431,7 +5434,7 @@
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
     </row>
-    <row r="51" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X51" s="7"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
@@ -5442,7 +5445,7 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
     </row>
-    <row r="52" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X52" s="7"/>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
@@ -5453,7 +5456,7 @@
       <c r="AE52" s="9"/>
       <c r="AF52" s="9"/>
     </row>
-    <row r="53" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X53" s="7"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -5464,7 +5467,7 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
     </row>
-    <row r="54" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X54" s="7"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -5475,7 +5478,7 @@
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
     </row>
-    <row r="55" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X55" s="7"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -5486,7 +5489,7 @@
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
     </row>
-    <row r="56" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X56" s="7"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -5497,7 +5500,7 @@
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
     </row>
-    <row r="57" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X57" s="7"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -5508,7 +5511,7 @@
       <c r="AE57" s="9"/>
       <c r="AF57" s="9"/>
     </row>
-    <row r="58" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X58" s="7"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
@@ -5519,7 +5522,7 @@
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
     </row>
-    <row r="59" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X59" s="7"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -5530,7 +5533,7 @@
       <c r="AE59" s="9"/>
       <c r="AF59" s="9"/>
     </row>
-    <row r="60" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X60" s="7"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -5541,7 +5544,7 @@
       <c r="AE60" s="9"/>
       <c r="AF60" s="9"/>
     </row>
-    <row r="61" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X61" s="7"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -5552,7 +5555,7 @@
       <c r="AE61" s="9"/>
       <c r="AF61" s="9"/>
     </row>
-    <row r="62" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X62" s="7"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -5563,7 +5566,7 @@
       <c r="AE62" s="9"/>
       <c r="AF62" s="9"/>
     </row>
-    <row r="63" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X63" s="7"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -5574,7 +5577,7 @@
       <c r="AE63" s="9"/>
       <c r="AF63" s="9"/>
     </row>
-    <row r="64" spans="24:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="24:32" x14ac:dyDescent="0.35">
       <c r="X64" s="7"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -5585,7 +5588,7 @@
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
     </row>
-    <row r="65" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X65" s="7"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -5596,7 +5599,7 @@
       <c r="AE65" s="9"/>
       <c r="AF65" s="9"/>
     </row>
-    <row r="66" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X66" s="7"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -5607,7 +5610,7 @@
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
     </row>
-    <row r="67" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X67" s="7"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -5618,7 +5621,7 @@
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
     </row>
-    <row r="68" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="7"/>
@@ -5631,7 +5634,7 @@
       <c r="AE68" s="9"/>
       <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="7"/>
@@ -5644,7 +5647,7 @@
       <c r="AE69" s="9"/>
       <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="7"/>
@@ -5657,7 +5660,7 @@
       <c r="AE70" s="9"/>
       <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G71" s="1"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
@@ -5670,7 +5673,7 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="7"/>
@@ -5683,7 +5686,7 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
     </row>
-    <row r="73" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="7"/>
@@ -5696,7 +5699,7 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
     </row>
-    <row r="74" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G74" s="1"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
@@ -5709,7 +5712,7 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G75" s="1"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
@@ -5722,7 +5725,7 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
     </row>
-    <row r="76" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="7"/>
@@ -5735,7 +5738,7 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="7"/>
@@ -5748,7 +5751,7 @@
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
     </row>
-    <row r="78" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="7"/>
@@ -5761,7 +5764,7 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
     </row>
-    <row r="79" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="7"/>
@@ -5773,7 +5776,7 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
     </row>
-    <row r="80" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="7"/>
@@ -5785,7 +5788,7 @@
       <c r="AE80" s="9"/>
       <c r="AF80" s="9"/>
     </row>
-    <row r="81" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="22:32" x14ac:dyDescent="0.35">
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="7"/>
@@ -5797,7 +5800,7 @@
       <c r="AE81" s="9"/>
       <c r="AF81" s="9"/>
     </row>
-    <row r="82" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="22:32" x14ac:dyDescent="0.35">
       <c r="X82" s="7"/>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
@@ -5807,7 +5810,7 @@
       <c r="AE82" s="9"/>
       <c r="AF82" s="9"/>
     </row>
-    <row r="83" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="22:32" x14ac:dyDescent="0.35">
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AB83" s="9"/>
